--- a/天然气/eta/天然气TTF连1价格Non-Trend-F0.2_月度数据.xlsx
+++ b/天然气/eta/天然气TTF连1价格Non-Trend-F0.2_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-0.1289</v>
+        <v>-0.7396</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.244</v>
+        <v>1.1721</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.236</v>
+        <v>-1.1538</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3442</v>
+        <v>0.2904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0997</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5738</v>
+        <v>-0.6105</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5306999999999999</v>
+        <v>-0.5764</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6657</v>
+        <v>-0.6855</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6936</v>
+        <v>-0.7133</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6139</v>
+        <v>0.609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5945</v>
+        <v>0.5826</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.9734</v>
+        <v>-1.9703</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.9509</v>
+        <v>-1.9937</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.6215</v>
+        <v>-3.6198</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.5852</v>
+        <v>-3.5521</v>
       </c>
     </row>
     <row r="10">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.8109</v>
+        <v>1.8137</v>
       </c>
       <c r="C10" t="n">
-        <v>1.8333</v>
+        <v>1.8072</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.581300000000001</v>
+        <v>9.5853</v>
       </c>
       <c r="C11" t="n">
-        <v>9.5932</v>
+        <v>9.597799999999999</v>
       </c>
     </row>
     <row r="12">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.2267</v>
+        <v>7.2314</v>
       </c>
       <c r="C12" t="n">
-        <v>7.2209</v>
+        <v>7.201</v>
       </c>
     </row>
     <row r="13">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.8116</v>
+        <v>3.8161</v>
       </c>
       <c r="C13" t="n">
-        <v>3.7821</v>
+        <v>3.8198</v>
       </c>
     </row>
     <row r="14">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.5841</v>
+        <v>3.5875</v>
       </c>
       <c r="C14" t="n">
-        <v>3.562</v>
+        <v>3.5973</v>
       </c>
     </row>
     <row r="15">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1852</v>
+        <v>0.1872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1743</v>
+        <v>0.1728</v>
       </c>
     </row>
     <row r="16">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.4001</v>
+        <v>-2.399</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.3675</v>
+        <v>-2.3702</v>
       </c>
     </row>
     <row r="17">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.6034</v>
+        <v>1.6039</v>
       </c>
       <c r="C17" t="n">
-        <v>1.562</v>
+        <v>1.5822</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-2.2465</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.2438</v>
+        <v>-2.1826</v>
       </c>
     </row>
     <row r="19">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.3483</v>
+        <v>1.3479</v>
       </c>
       <c r="C19" t="n">
-        <v>1.333</v>
+        <v>1.2711</v>
       </c>
     </row>
     <row r="20">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.201</v>
+        <v>0.2002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1596</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="21">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2.0838</v>
+        <v>-2.085</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.0145</v>
+        <v>-2.1584</v>
       </c>
     </row>
     <row r="22">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.7372</v>
+        <v>-3.7386</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.7808</v>
+        <v>-3.7052</v>
       </c>
     </row>
     <row r="23">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.0139</v>
+        <v>-5.0153</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.0361</v>
+        <v>-4.9922</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.6408</v>
+        <v>-1.642</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.6565</v>
+        <v>-1.6396</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.8987</v>
+        <v>3.8974</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.7778</v>
+        <v>12.7761</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.0874</v>
+        <v>13.0851</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.1529</v>
+        <v>2.1504</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.2057</v>
+        <v>-0.2064</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-5.7022</v>
+        <v>-5.6963</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.6764</v>
+        <v>-2.6631</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.5838</v>
+        <v>-8.606400000000001</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-12.3617</v>
+        <v>-12.4474</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-23.6321</v>
+        <v>-23.7046</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-25.4845</v>
+        <v>-25.5443</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-24.4752</v>
+        <v>-24.5247</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
